--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 16C/PRUEBA_TEMPERATURA_23_16C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 16C/PRUEBA_TEMPERATURA_23_16C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,136 +73,100 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-10 02:32:11</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:33:12</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:34:14</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:35:15</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:36:17</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:37:19</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:38:20</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:39:22</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:40:23</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:41:25</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:42:27</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:43:28</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:44:30</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:45:31</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:46:33</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:47:35</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:48:36</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:49:38</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:50:39</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:51:41</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:52:43</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:53:44</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:54:46</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:55:47</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:56:49</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:57:51</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:58:52</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:59:54</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:00:55</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:01:57</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:02:59</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:04:00</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:05:02</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:06:03</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:07:05</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:08:07</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:09:08</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:10:10</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:11:11</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:12:13</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:13:15</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:14:16</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:15:18</t>
-  </si>
-  <si>
-    <t>2023-12-10 03:16:19</t>
+    <t>2023-12-09 07:16:32</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:17:33</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:18:34</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:19:35</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:20:37</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:21:38</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:22:39</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:23:41</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:24:42</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:25:43</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:26:45</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:27:46</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:28:47</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:29:49</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:30:50</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:31:51</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:32:53</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:33:54</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:34:55</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:35:57</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:36:58</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:37:59</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:39:01</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:40:02</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:41:03</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:42:05</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:43:06</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:44:07</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:45:09</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:46:10</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:47:11</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:48:13</t>
   </si>
 </sst>
 </file>
@@ -869,141 +833,105 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$45</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>28.557692307692299</c:v>
+                  <c:v>25.673076923076898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.459790209790199</c:v>
+                  <c:v>23.837412587412501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.837412587412501</c:v>
+                  <c:v>22.788461538461501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.526223776223699</c:v>
+                  <c:v>21.870629370629299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>21.739510489510501</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21.346153846153801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.821678321678299</c:v>
+                  <c:v>21.083916083916101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.083916083916101</c:v>
+                  <c:v>20.5594405594405</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.821678321678299</c:v>
+                  <c:v>20.5594405594405</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20.2972027972028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.166083916083899</c:v>
+                  <c:v>19.9038461538461</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.166083916083899</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>19.379370629370602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>19.9038461538461</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>19.2482517482517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.379370629370602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.379370629370602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.379370629370602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.379370629370602</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.379370629370602</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>20.034965034965001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.641608391608401</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.9038461538461</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.8548951048951</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.510489510489499</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.641608391608401</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.2482517482517</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19.117132867132899</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>19.510489510489499</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18.986013986014001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.8548951048951</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19.2482517482517</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.510489510489499</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18.723776223776198</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>19.2482517482517</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>19.117132867132899</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>19.117132867132899</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>18.986013986014001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>19.2482517482517</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19.510489510489499</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>18.986013986014001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>20.690559440559401</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21.215034965034899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1019,7 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="16"/>
+          <c:min val="18"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1263,34 +1191,34 @@
                   <c:v>19.379370629370602</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>19.379370629370602</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.2482517482517</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>19.379370629370602</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.117132867132899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.117132867132899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.986013986014001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.2482517482517</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>19.379370629370602</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>19.510489510489499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.986013986014001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.379370629370602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,10 +1315,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19.248251748251736</c:v>
+                  <c:v>19.498569612205966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.248251748251736</c:v>
+                  <c:v>19.498569612205966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1564,7 +1492,6 @@
         <c:axId val="464414480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3113,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3162,17 +3089,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>28.557692307692299</v>
+        <v>25.673076923076898</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.211805555067258E-2</v>
+        <v>8.5069444467080757E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3189,14 +3116,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26.459790209790199</v>
+        <v>23.837412587412501</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)-2</f>
-        <v>42</v>
+        <f>COUNT(E:E)-1</f>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3213,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.837412587412501</v>
+        <v>22.788461538461501</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3230,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.526223776223699</v>
+        <v>21.870629370629299</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3247,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.132867132867101</v>
+        <v>21.739510489510501</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3281,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>20.821678321678299</v>
+        <v>21.083916083916101</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3298,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.083916083916101</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3315,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.821678321678299</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3349,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.166083916083899</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3366,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.166083916083899</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3383,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.9038461538461</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3400,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.034965034965001</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3417,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.379370629370602</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3434,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.641608391608401</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3451,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.9038461538461</v>
+        <v>19.2482517482517</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3468,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.379370629370602</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3485,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.8548951048951</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3502,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.510489510489499</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3519,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.641608391608401</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3536,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.2482517482517</v>
+        <v>19.641608391608401</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3553,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.117132867132899</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3570,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.510489510489499</v>
+        <v>19.641608391608401</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3587,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>19.379370629370602</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3604,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>18.986013986014001</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3621,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>18.8548951048951</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3638,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>19.2482517482517</v>
+        <v>19.641608391608401</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3655,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>19.510489510489499</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3672,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>18.723776223776198</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3689,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>19.379370629370602</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3706,211 +3633,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>19.379370629370602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>23</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>19.379370629370602</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>23</v>
-      </c>
-      <c r="B35">
-        <v>16</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>19.2482517482517</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>23</v>
-      </c>
-      <c r="B36">
-        <v>16</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>19.379370629370602</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>23</v>
-      </c>
-      <c r="B37">
-        <v>16</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>19.117132867132899</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>23</v>
-      </c>
-      <c r="B38">
-        <v>16</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>19.117132867132899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>23</v>
-      </c>
-      <c r="B39">
-        <v>16</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>18.986013986014001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>23</v>
-      </c>
-      <c r="B40">
-        <v>16</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>19.2482517482517</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>23</v>
-      </c>
-      <c r="B41">
-        <v>16</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>19.510489510489499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>23</v>
-      </c>
-      <c r="B42">
-        <v>16</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>18.986013986014001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>23</v>
-      </c>
-      <c r="B43">
-        <v>16</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>19.379370629370602</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>23</v>
-      </c>
-      <c r="B44">
-        <v>16</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>20.690559440559401</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>16</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>21.215034965034899</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
   </sheetData>
@@ -3923,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3949,7 +3672,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:04:00</v>
+        <v>2023-12-09 07:36:58</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
@@ -3960,34 +3683,34 @@
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>19.248251748251736</v>
+        <v>19.498569612205966</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:05:02</v>
+        <v>2023-12-09 07:37:59</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>19.379370629370602</v>
+        <v>19.641608391608401</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>19.248251748251736</v>
+        <v>19.498569612205966</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:06:03</v>
+        <v>2023-12-09 07:39:01</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>19.2482517482517</v>
+        <v>19.510489510489499</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3996,35 +3719,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:07:05</v>
+        <v>2023-12-09 07:40:02</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>19.379370629370602</v>
+        <v>19.641608391608401</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.17591443878930005</v>
+        <v>0.10898724841701257</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:08:07</v>
+        <v>2023-12-09 07:41:03</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>19.117132867132899</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:09:08</v>
+        <v>2023-12-09 07:42:05</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>19.117132867132899</v>
+        <v>19.379370629370602</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -4033,36 +3756,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:10:10</v>
+        <v>2023-12-09 07:43:06</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>18.986013986014001</v>
+        <v>19.510489510489499</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>19.510489510489499</v>
+        <v>19.641608391608401</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:11:11</v>
+        <v>2023-12-09 07:44:07</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>19.2482517482517</v>
+        <v>19.641608391608401</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:12:13</v>
+        <v>2023-12-09 07:45:09</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>19.510489510489499</v>
+        <v>19.379370629370602</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -4071,25 +3794,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:13:15</v>
+        <v>2023-12-09 07:46:10</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>18.986013986014001</v>
+        <v>19.379370629370602</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>18.986013986014001</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 03:14:16</v>
+        <v>2023-12-09 07:47:11</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>19.379370629370602</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
